--- a/Elin.Gxt.IdCard/package/LangMod/EN/ElinGxtIdCard.xlsx
+++ b/Elin.Gxt.IdCard/package/LangMod/EN/ElinGxtIdCard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\elin\Elin.Gxt.IdCard\package\LangMod\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\elin\Elin.Gxt.Mods\Elin.Gxt.IdCard\package\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9098B88B-C824-4C26-8ACA-D1120C93A789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44D2B59-73EB-41CC-A1E9-91011654436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7106052A-6264-40CC-BFFB-366680F76460}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>gxt_ui_id_card_export</t>
+  </si>
+  <si>
+    <t>gxt_ui_key_export</t>
+  </si>
+  <si>
+    <t>Export Private Key to Clipboard</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,6 +579,18 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
